--- a/sheet_dataframe_process/tests/files/missing_required_column.xlsx
+++ b/sheet_dataframe_process/tests/files/missing_required_column.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">near prime minister door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
   </si>
 </sst>
 </file>
@@ -141,10 +144,10 @@
   <dimension ref="C1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="7:9"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
@@ -190,7 +193,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
   </sheetData>
